--- a/last_project_plan.xlsx
+++ b/last_project_plan.xlsx
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t xml:space="preserve">Project Start Date </t>
   </si>
@@ -486,9 +486,6 @@
     <t>moamen</t>
   </si>
   <si>
-    <t>yousef</t>
-  </si>
-  <si>
     <t>2nd sprint</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>3.1.2</t>
   </si>
   <si>
-    <t>send msg</t>
-  </si>
-  <si>
     <t>3.2.1</t>
   </si>
   <si>
@@ -549,9 +543,6 @@
     <t>Get map clarify</t>
   </si>
   <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
     <t>4.1.3</t>
   </si>
   <si>
@@ -561,9 +552,6 @@
     <t>4.2.1</t>
   </si>
   <si>
-    <t>4.2.2</t>
-  </si>
-  <si>
     <t>TEMPLATE ROWS</t>
   </si>
   <si>
@@ -630,21 +618,12 @@
     <t>2.3.2</t>
   </si>
   <si>
-    <t>zeniab</t>
-  </si>
-  <si>
-    <t>alaa&amp;moamen</t>
-  </si>
-  <si>
     <t>yousef&amp;moamen</t>
   </si>
   <si>
     <t>eman reda&amp;ereny</t>
   </si>
   <si>
-    <t>zeianb&amp;ereny</t>
-  </si>
-  <si>
     <t>28/3</t>
   </si>
   <si>
@@ -664,6 +643,24 @@
   </si>
   <si>
     <t>connect data and pages</t>
+  </si>
+  <si>
+    <t>send msg for client service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotels offers </t>
+  </si>
+  <si>
+    <t>26/4</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            zeniab&amp;alaa</t>
+  </si>
+  <si>
+    <t>zeniab&amp;ereny</t>
   </si>
 </sst>
 </file>
@@ -967,7 +964,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,6 +1112,10 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1125,25 +1126,24 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,22 +1506,22 @@
       <c r="B6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="57">
         <v>43407</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
     </row>
     <row r="7" spans="1:64" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="11" spans="1:64" ht="51" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1552,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2">
         <v>43170</v>
@@ -1902,10 +1902,10 @@
       <c r="B14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="56"/>
+      <c r="C14" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="58"/>
       <c r="E14" s="28">
         <v>43170</v>
       </c>
@@ -1929,22 +1929,22 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1994,17 +1994,17 @@
         <v>20</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="56"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="58"/>
       <c r="E15" s="28">
         <v>43173</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="30">
         <v>5</v>
@@ -2029,22 +2029,22 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
@@ -2089,15 +2089,15 @@
         <v>1.2</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="30">
         <v>6</v>
@@ -2133,13 +2133,13 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
@@ -2179,10 +2179,10 @@
       <c r="B17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="54"/>
+      <c r="C17" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="56"/>
       <c r="E17" s="28">
         <v>43170</v>
       </c>
@@ -2224,13 +2224,13 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
@@ -2265,17 +2265,17 @@
         <v>23</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="56"/>
+        <v>41</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="58"/>
       <c r="E18" s="28">
         <v>43170</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="30">
         <v>6</v>
@@ -2315,13 +2315,13 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
@@ -2354,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -2406,16 +2406,16 @@
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
       <c r="AT19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AW19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
@@ -2439,12 +2439,12 @@
         <v>2.1</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="36">
         <v>43104</v>
@@ -2501,16 +2501,16 @@
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
       <c r="AX20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
@@ -2526,20 +2526,20 @@
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="58"/>
+      <c r="C21" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="64"/>
       <c r="E21" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G21" s="30">
         <v>4</v>
@@ -2595,13 +2595,13 @@
       <c r="AZ21" s="3"/>
       <c r="BA21" s="3"/>
       <c r="BB21" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BD21" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BE21" s="3"/>
       <c r="BF21" s="3"/>
@@ -2614,17 +2614,17 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="61" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F22" s="36">
         <v>43104</v>
@@ -2686,7 +2686,7 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BF22" s="3"/>
       <c r="BG22" s="3"/>
@@ -2701,15 +2701,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
       <c r="E23" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="30">
         <v>5</v>
@@ -2772,7 +2772,7 @@
       <c r="BE23" s="3"/>
       <c r="BF23" s="3"/>
       <c r="BG23" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>17</v>
@@ -2792,10 +2792,10 @@
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G24" s="30">
         <v>4</v>
@@ -2857,7 +2857,7 @@
       <c r="BF24" s="3"/>
       <c r="BG24" s="3"/>
       <c r="BH24" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BI24" s="3"/>
       <c r="BJ24" s="3"/>
@@ -2866,17 +2866,17 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="58"/>
+        <v>57</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="64"/>
       <c r="E25" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F25" s="36">
         <v>43104</v>
@@ -2942,7 +2942,7 @@
       <c r="BG25" s="3"/>
       <c r="BH25" s="3"/>
       <c r="BI25" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
@@ -2953,10 +2953,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
+        <v>66</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="28">
         <v>43104</v>
       </c>
@@ -3032,15 +3032,15 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="28">
         <v>43104</v>
       </c>
@@ -3114,15 +3114,15 @@
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="58"/>
+        <v>41</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="64"/>
       <c r="E28" s="28">
         <v>43194</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -3269,7 +3269,7 @@
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BL29" s="3"/>
     </row>
@@ -3279,7 +3279,7 @@
         <v>3.1</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
@@ -3287,7 +3287,7 @@
         <v>43316</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G30" s="30">
         <v>7</v>
@@ -3373,15 +3373,15 @@
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="56"/>
+      <c r="C31" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="58"/>
       <c r="E31" s="28">
         <v>43316</v>
       </c>
@@ -3405,22 +3405,22 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -3467,20 +3467,20 @@
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="56"/>
+        <v>41</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="58"/>
       <c r="E32" s="28">
         <v>43408</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G32" s="30">
         <v>5</v>
@@ -3505,22 +3505,22 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
@@ -3564,15 +3564,15 @@
         <v>3.2</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+        <v>78</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G33" s="30">
         <v>7</v>
@@ -3608,13 +3608,13 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AG33" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
@@ -3649,17 +3649,17 @@
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="54"/>
+      <c r="C34" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="56"/>
       <c r="E34" s="28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F34" s="36">
         <v>43208</v>
@@ -3699,13 +3699,13 @@
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
@@ -3737,20 +3737,20 @@
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="56"/>
+        <v>41</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="58"/>
       <c r="E35" s="28">
         <v>43208</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G35" s="30">
         <v>5</v>
@@ -3793,19 +3793,19 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AP35" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AQ35" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AR35" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AS35" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
@@ -3833,7 +3833,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
@@ -3889,16 +3889,16 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
       <c r="AX36" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AY36" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AZ36" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BA36" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BB36" s="3"/>
       <c r="BC36" s="3"/>
@@ -3918,12 +3918,12 @@
         <v>4.1</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27"/>
       <c r="E37" s="28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F37" s="29">
         <v>43219</v>
@@ -3984,13 +3984,13 @@
       <c r="AZ37" s="3"/>
       <c r="BA37" s="3"/>
       <c r="BB37" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BC37" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BD37" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BE37" s="3"/>
       <c r="BF37" s="3"/>
@@ -4003,29 +4003,29 @@
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="58"/>
       <c r="E38" s="28">
         <v>43212</v>
       </c>
       <c r="F38" s="29">
-        <v>43216</v>
+        <v>43219</v>
       </c>
       <c r="G38" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="31">
         <v>0</v>
       </c>
       <c r="I38" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="32"/>
       <c r="K38" s="3"/>
@@ -4074,11 +4074,11 @@
       <c r="BB38" s="3"/>
       <c r="BC38" s="3"/>
       <c r="BD38" s="3"/>
-      <c r="BE38" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="BE38" s="3"/>
       <c r="BF38" s="3"/>
-      <c r="BG38" s="3"/>
+      <c r="BG38" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="BH38" s="3"/>
       <c r="BI38" s="3"/>
       <c r="BJ38" s="3"/>
@@ -4086,32 +4086,32 @@
       <c r="BL38" s="3"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>76</v>
-      </c>
+      <c r="A39" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="56"/>
       <c r="D39" s="56"/>
       <c r="E39" s="28">
-        <v>43216</v>
-      </c>
-      <c r="F39" s="29">
         <v>43219</v>
       </c>
+      <c r="F39" s="41">
+        <v>43256</v>
+      </c>
       <c r="G39" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H39" s="31">
         <v>0</v>
       </c>
-      <c r="I39" s="32">
-        <v>3</v>
-      </c>
-      <c r="J39" s="32"/>
+      <c r="I39" s="42">
+        <v>5</v>
+      </c>
+      <c r="J39" s="42">
+        <v>6</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4160,24 +4160,26 @@
       <c r="BD39" s="3"/>
       <c r="BE39" s="3"/>
       <c r="BF39" s="3"/>
-      <c r="BG39" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="BG39" s="3"/>
       <c r="BH39" s="3"/>
-      <c r="BI39" s="3"/>
+      <c r="BI39" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
       <c r="BL39" s="3"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
-        <v>4.2</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="A40" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="58"/>
       <c r="E40" s="28">
         <v>43219</v>
       </c>
@@ -4185,17 +4187,15 @@
         <v>43256</v>
       </c>
       <c r="G40" s="30">
-        <v>7</v>
-      </c>
-      <c r="H40" s="31">
+        <v>5</v>
+      </c>
+      <c r="H40" s="30">
         <v>0</v>
       </c>
       <c r="I40" s="42">
-        <v>5</v>
-      </c>
-      <c r="J40" s="42">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J40" s="42"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -4246,34 +4246,32 @@
       <c r="BF40" s="3"/>
       <c r="BG40" s="3"/>
       <c r="BH40" s="3"/>
-      <c r="BI40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="BK40" s="3"/>
       <c r="BL40" s="3"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="28">
-        <v>43219</v>
-      </c>
-      <c r="F41" s="41">
-        <v>43164</v>
+      <c r="A41" s="24">
+        <v>4.3</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="G41" s="30">
         <v>5</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="31">
         <v>0</v>
       </c>
       <c r="I41" s="42">
@@ -4331,37 +4329,35 @@
       <c r="BG41" s="3"/>
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
-      <c r="BJ41" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="28">
-        <v>43164</v>
-      </c>
-      <c r="F42" s="41">
-        <v>43256</v>
+        <v>17</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="55"/>
+      <c r="E42" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="G42" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42" s="31">
         <v>0</v>
       </c>
       <c r="I42" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="3"/>
@@ -4416,14 +4412,12 @@
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3"/>
-      <c r="BK42" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="BK42" s="3"/>
       <c r="BL42" s="3"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="43"/>
@@ -4491,7 +4485,7 @@
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -4563,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="48"/>
@@ -4640,7 +4634,7 @@
         <v>1.1</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C46" s="49"/>
       <c r="D46" s="48"/>
@@ -4717,7 +4711,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C47" s="49"/>
       <c r="D47" s="48"/>
@@ -4794,7 +4788,7 @@
         <v>1.1.1.1</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="48"/>
@@ -4932,33 +4926,31 @@
       <c r="BL49" s="3"/>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B50" s="63" t="s">
-        <v>43</v>
+      <c r="B50" s="54" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="63" t="s">
-        <v>82</v>
+      <c r="B51" s="54" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B52" s="63" t="s">
-        <v>83</v>
+      <c r="B52" s="54" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="63" t="s">
-        <v>84</v>
+      <c r="B53" s="54" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="23">
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -4979,7 +4971,7 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
   </mergeCells>
-  <conditionalFormatting sqref="H43:H48 H12:H40">
+  <conditionalFormatting sqref="H12:H39 H41:H48">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4989,20 +4981,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6B9C912B-A062-432B-96A0-BCA0DA30E39E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E588DB0A-8CF2-415F-9730-42792E6F245D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5031,22 +5009,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43:H48 H12:H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E588DB0A-8CF2-415F-9730-42792E6F245D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H12:H39 H41:H48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/last_project_plan.xlsx
+++ b/last_project_plan.xlsx
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
   <si>
     <t xml:space="preserve">Project Start Date </t>
   </si>
@@ -645,9 +645,6 @@
     <t>connect data and pages</t>
   </si>
   <si>
-    <t>send msg for client service</t>
-  </si>
-  <si>
     <t xml:space="preserve">hotels offers </t>
   </si>
   <si>
@@ -661,6 +658,12 @@
   </si>
   <si>
     <t>zeniab&amp;ereny</t>
+  </si>
+  <si>
+    <t>send msg to the main center</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1116,6 +1119,18 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1131,18 +1146,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1473,14 +1476,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1506,22 +1509,22 @@
       <c r="B6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="61">
         <v>43407</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
     </row>
     <row r="7" spans="1:64" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
     </row>
     <row r="11" spans="1:64" ht="51" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1902,10 +1905,10 @@
       <c r="B14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="28">
         <v>43170</v>
       </c>
@@ -1996,10 +1999,10 @@
       <c r="B15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="28">
         <v>43173</v>
       </c>
@@ -2091,8 +2094,8 @@
       <c r="B16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="28" t="s">
         <v>74</v>
       </c>
@@ -2179,10 +2182,10 @@
       <c r="B17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="28">
         <v>43170</v>
       </c>
@@ -2267,10 +2270,10 @@
       <c r="B18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="28">
         <v>43170</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2531,10 +2534,10 @@
       <c r="B21" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="28" t="s">
         <v>28</v>
       </c>
@@ -2619,10 +2622,10 @@
       <c r="B22" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="62"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="28" t="s">
         <v>71</v>
       </c>
@@ -2703,8 +2706,8 @@
       <c r="B23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="28" t="s">
         <v>28</v>
       </c>
@@ -2787,10 +2790,10 @@
       <c r="B24" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="28" t="s">
         <v>28</v>
       </c>
@@ -2871,10 +2874,10 @@
       <c r="B25" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="28" t="s">
         <v>71</v>
       </c>
@@ -2955,8 +2958,8 @@
       <c r="B26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="28">
         <v>43104</v>
       </c>
@@ -3037,10 +3040,10 @@
       <c r="B27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="28">
         <v>43104</v>
       </c>
@@ -3119,10 +3122,10 @@
       <c r="B28" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="64"/>
+      <c r="C28" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="57"/>
       <c r="E28" s="28">
         <v>43194</v>
       </c>
@@ -3378,10 +3381,10 @@
       <c r="B31" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="28">
         <v>43316</v>
       </c>
@@ -3472,10 +3475,10 @@
       <c r="B32" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="58"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="28">
         <v>43408</v>
       </c>
@@ -3564,10 +3567,10 @@
         <v>3.2</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+        <v>83</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="28" t="s">
         <v>73</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>0.75</v>
       </c>
       <c r="I33" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J33" s="32">
         <v>3</v>
@@ -3654,10 +3657,10 @@
       <c r="B34" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="28" t="s">
         <v>73</v>
       </c>
@@ -3742,10 +3745,10 @@
       <c r="B35" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="58"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="28">
         <v>43208</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J37" s="32">
         <v>5</v>
@@ -4008,10 +4011,10 @@
       <c r="B38" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="58"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="28">
         <v>43212</v>
       </c>
@@ -4021,8 +4024,8 @@
       <c r="G38" s="30">
         <v>4</v>
       </c>
-      <c r="H38" s="31">
-        <v>0</v>
+      <c r="H38" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="I38" s="32">
         <v>3</v>
@@ -4092,8 +4095,8 @@
       <c r="B39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="28">
         <v>43219</v>
       </c>
@@ -4107,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="42">
+        <v>7</v>
+      </c>
+      <c r="J39" s="42">
         <v>5</v>
-      </c>
-      <c r="J39" s="42">
-        <v>6</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -4176,10 +4179,10 @@
       <c r="B40" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="58"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="28">
         <v>43219</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>4.3</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
@@ -4266,18 +4269,20 @@
         <v>72</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="30">
         <v>5</v>
       </c>
       <c r="H41" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="42">
-        <v>4</v>
-      </c>
-      <c r="J41" s="42"/>
+        <v>5</v>
+      </c>
+      <c r="J41" s="42">
+        <v>2</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4335,26 +4340,26 @@
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="28" t="s">
         <v>72</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" s="30">
         <v>5</v>
       </c>
       <c r="H42" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="42">
         <v>4</v>
@@ -4952,11 +4957,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -4970,6 +4970,11 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H39 H41:H48">
     <cfRule type="dataBar" priority="3">
